--- a/Занятые помещения.xlsx
+++ b/Занятые помещения.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Занятые помещения</t>
   </si>
   <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
     <t>Наименование объекта</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>Объект 4</t>
+  </si>
+  <si>
+    <t>Объект 6</t>
   </si>
   <si>
     <t xml:space="preserve">Итого занятых помещений: </t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,30 +404,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1">
-        <v>44601.40151163631</v>
+        <v>44607.51754907271</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -430,15 +439,15 @@
         <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -447,15 +456,15 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -464,15 +473,15 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>432</v>
@@ -481,15 +490,15 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>432</v>
@@ -498,18 +507,35 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>421</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
